--- a/resources/Senhas.xlsx
+++ b/resources/Senhas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\aee_digital_infra\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\aee_digital_front\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C66AC9B-BAED-4F60-AE3A-98B686AE49EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E324552C-05AC-4977-82FB-BAC59A2296C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E20BC854-8EAC-46DB-AB14-675C412D26C4}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{E20BC854-8EAC-46DB-AB14-675C412D26C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Regional</t>
   </si>
@@ -113,6 +113,15 @@
   </si>
   <si>
     <t>lestecasaisabel</t>
+  </si>
+  <si>
+    <t>VALE DO PARAÍBA</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>COORDVALE</t>
   </si>
 </sst>
 </file>
@@ -11278,10 +11287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F702FB93-25E9-4B9E-8291-C5F9DC28EBBF}">
-  <dimension ref="A1:F345"/>
+  <dimension ref="A1:F346"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="F347" sqref="F347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12922,7 +12931,7 @@
       </c>
       <c r="F63" t="str">
         <f ca="1">LEFT(E63,1)&amp;RIGHT(LEFT(E63,2),1)&amp;RIGHT(LEFT(E63,3),1)&amp;RANDBETWEEN(111,999)&amp;RIGHT(E63,1)&amp;LEFT(RIGHT(E63,2),1)&amp;LEFT(RIGHT(E63,3),1)</f>
-        <v>cam817afe</v>
+        <v>cam295afe</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -13051,7 +13060,7 @@
       </c>
       <c r="F68" t="str">
         <f t="shared" ref="F68:F69" ca="1" si="2">LEFT(E68,1)&amp;RIGHT(LEFT(E68,2),1)&amp;RIGHT(LEFT(E68,3),1)&amp;RANDBETWEEN(111,999)&amp;RIGHT(E68,1)&amp;LEFT(RIGHT(E68,2),1)&amp;LEFT(RIGHT(E68,3),1)</f>
-        <v>cam291amr</v>
+        <v>cam170amr</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -13076,7 +13085,7 @@
       </c>
       <c r="F69" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>cam874afa</v>
+        <v>cam878afa</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -13127,7 +13136,7 @@
       </c>
       <c r="F71" t="str">
         <f ca="1">LEFT(E71,1)&amp;RIGHT(LEFT(E71,2),1)&amp;RIGHT(LEFT(E71,3),1)&amp;RANDBETWEEN(111,999)&amp;RIGHT(E71,1)&amp;LEFT(RIGHT(E71,2),1)&amp;LEFT(RIGHT(E71,3),1)</f>
-        <v>gue350zul</v>
+        <v>gue579zul</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -13230,7 +13239,7 @@
       </c>
       <c r="F75" t="str">
         <f ca="1">LEFT(E75,1)&amp;RIGHT(LEFT(E75,2),1)&amp;RIGHT(LEFT(E75,3),1)&amp;RANDBETWEEN(111,999)&amp;RIGHT(E75,1)&amp;LEFT(RIGHT(E75,2),1)&amp;LEFT(RIGHT(E75,3),1)</f>
-        <v>mei404ata</v>
+        <v>mei252ata</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -15257,7 +15266,7 @@
       </c>
       <c r="F153" t="str">
         <f ca="1">LEFT(E153,1)&amp;RIGHT(LEFT(E153,2),1)&amp;RIGHT(LEFT(E153,3),1)&amp;RANDBETWEEN(111,999)&amp;RIGHT(E153,1)&amp;LEFT(RIGHT(E153,2),1)&amp;LEFT(RIGHT(E153,3),1)</f>
-        <v>mge515ocs</v>
+        <v>mge574ocs</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -15438,7 +15447,7 @@
       </c>
       <c r="F160" t="str">
         <f ca="1">LEFT(E160,1)&amp;RIGHT(LEFT(E160,2),1)&amp;RIGHT(LEFT(E160,3),1)&amp;RANDBETWEEN(111,999)&amp;RIGHT(E160,1)&amp;LEFT(RIGHT(E160,2),1)&amp;LEFT(RIGHT(E160,3),1)</f>
-        <v>mgp725zul</v>
+        <v>mgp262zul</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -15541,7 +15550,7 @@
       </c>
       <c r="F164" t="str">
         <f ca="1">LEFT(E164,1)&amp;RIGHT(LEFT(E164,2),1)&amp;RIGHT(LEFT(E164,3),1)&amp;RANDBETWEEN(111,999)&amp;RIGHT(E164,1)&amp;LEFT(RIGHT(E164,2),1)&amp;LEFT(RIGHT(E164,3),1)</f>
-        <v>nor837aea</v>
+        <v>nor705aea</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -15644,7 +15653,7 @@
       </c>
       <c r="F168" t="str">
         <f t="shared" ref="F168:F169" ca="1" si="4">LEFT(E168,1)&amp;RIGHT(LEFT(E168,2),1)&amp;RIGHT(LEFT(E168,3),1)&amp;RANDBETWEEN(111,999)&amp;RIGHT(E168,1)&amp;LEFT(RIGHT(E168,2),1)&amp;LEFT(RIGHT(E168,3),1)</f>
-        <v>nor576ohn</v>
+        <v>nor226ohn</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -15669,7 +15678,7 @@
       </c>
       <c r="F169" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>nor597eae</v>
+        <v>nor719eae</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -15772,7 +15781,7 @@
       </c>
       <c r="F173" t="str">
         <f ca="1">LEFT(E173,1)&amp;RIGHT(LEFT(E173,2),1)&amp;RIGHT(LEFT(E173,3),1)&amp;RANDBETWEEN(111,999)&amp;RIGHT(E173,1)&amp;LEFT(RIGHT(E173,2),1)&amp;LEFT(RIGHT(E173,3),1)</f>
-        <v>nor743dhe</v>
+        <v>nor226dhe</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -15823,7 +15832,7 @@
       </c>
       <c r="F175" t="str">
         <f t="shared" ref="F175:F176" ca="1" si="5">LEFT(E175,1)&amp;RIGHT(LEFT(E175,2),1)&amp;RIGHT(LEFT(E175,3),1)&amp;RANDBETWEEN(111,999)&amp;RIGHT(E175,1)&amp;LEFT(RIGHT(E175,2),1)&amp;LEFT(RIGHT(E175,3),1)</f>
-        <v>nor225bef</v>
+        <v>nor962bef</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -15848,7 +15857,7 @@
       </c>
       <c r="F176" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>nor264lue</v>
+        <v>nor440lue</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -16055,7 +16064,7 @@
       </c>
       <c r="F184" t="str">
         <f ca="1">LEFT(E184,1)&amp;RIGHT(LEFT(E184,2),1)&amp;RIGHT(LEFT(E184,3),1)&amp;RANDBETWEEN(111,999)&amp;RIGHT(E184,1)&amp;LEFT(RIGHT(E184,2),1)&amp;LEFT(RIGHT(E184,3),1)</f>
-        <v>nor652jde</v>
+        <v>nor495jde</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -16106,7 +16115,7 @@
       </c>
       <c r="F186" t="str">
         <f ca="1">LEFT(E186,1)&amp;RIGHT(LEFT(E186,2),1)&amp;RIGHT(LEFT(E186,3),1)&amp;RANDBETWEEN(111,999)&amp;RIGHT(E186,1)&amp;LEFT(RIGHT(E186,2),1)&amp;LEFT(RIGHT(E186,3),1)</f>
-        <v>nor429mej</v>
+        <v>nor806mej</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -16209,7 +16218,7 @@
       </c>
       <c r="F190" t="str">
         <f ca="1">LEFT(E190,1)&amp;RIGHT(LEFT(E190,2),1)&amp;RIGHT(LEFT(E190,3),1)&amp;RANDBETWEEN(111,999)&amp;RIGHT(E190,1)&amp;LEFT(RIGHT(E190,2),1)&amp;LEFT(RIGHT(E190,3),1)</f>
-        <v>nor723ani</v>
+        <v>nor603ani</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -16338,7 +16347,7 @@
       </c>
       <c r="F195" t="str">
         <f ca="1">LEFT(E195,1)&amp;RIGHT(LEFT(E195,2),1)&amp;RIGHT(LEFT(E195,3),1)&amp;RANDBETWEEN(111,999)&amp;RIGHT(E195,1)&amp;LEFT(RIGHT(E195,2),1)&amp;LEFT(RIGHT(E195,3),1)</f>
-        <v>nor747zul</v>
+        <v>nor759zul</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -17637,7 +17646,7 @@
       </c>
       <c r="F245" t="str">
         <f ca="1">LEFT(E245,1)&amp;RIGHT(LEFT(E245,2),1)&amp;RIGHT(LEFT(E245,3),1)&amp;RANDBETWEEN(111,999)&amp;RIGHT(E245,1)&amp;LEFT(RIGHT(E245,2),1)&amp;LEFT(RIGHT(E245,3),1)</f>
-        <v>spc776etn</v>
+        <v>spc578etn</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
@@ -17870,7 +17879,7 @@
       </c>
       <c r="F254" t="str">
         <f ca="1">LEFT(E254,1)&amp;RIGHT(LEFT(E254,2),1)&amp;RIGHT(LEFT(E254,3),1)&amp;RANDBETWEEN(111,999)&amp;RIGHT(E254,1)&amp;LEFT(RIGHT(E254,2),1)&amp;LEFT(RIGHT(E254,3),1)</f>
-        <v>les506leb</v>
+        <v>les627leb</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -20239,6 +20248,20 @@
         <v>ff256ctr</v>
       </c>
     </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>25</v>
+      </c>
+      <c r="B346" t="s">
+        <v>26</v>
+      </c>
+      <c r="E346" t="s">
+        <v>27</v>
+      </c>
+      <c r="F346" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/resources/Senhas.xlsx
+++ b/resources/Senhas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\aee_digital_front\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E324552C-05AC-4977-82FB-BAC59A2296C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874CB54B-9991-4C2A-A05C-8B82F8D7ED0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{E20BC854-8EAC-46DB-AB14-675C412D26C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E20BC854-8EAC-46DB-AB14-675C412D26C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Regional</t>
   </si>
@@ -123,13 +123,24 @@
   <si>
     <t>COORDVALE</t>
   </si>
+  <si>
+    <t>COORDALIANCA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -157,8 +168,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11287,10 +11299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F702FB93-25E9-4B9E-8291-C5F9DC28EBBF}">
-  <dimension ref="A1:F346"/>
+  <dimension ref="A1:F348"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
-      <selection activeCell="F347" sqref="F347"/>
+      <selection activeCell="F348" sqref="F348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12931,7 +12943,7 @@
       </c>
       <c r="F63" t="str">
         <f ca="1">LEFT(E63,1)&amp;RIGHT(LEFT(E63,2),1)&amp;RIGHT(LEFT(E63,3),1)&amp;RANDBETWEEN(111,999)&amp;RIGHT(E63,1)&amp;LEFT(RIGHT(E63,2),1)&amp;LEFT(RIGHT(E63,3),1)</f>
-        <v>cam295afe</v>
+        <v>cam529afe</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -13060,7 +13072,7 @@
       </c>
       <c r="F68" t="str">
         <f t="shared" ref="F68:F69" ca="1" si="2">LEFT(E68,1)&amp;RIGHT(LEFT(E68,2),1)&amp;RIGHT(LEFT(E68,3),1)&amp;RANDBETWEEN(111,999)&amp;RIGHT(E68,1)&amp;LEFT(RIGHT(E68,2),1)&amp;LEFT(RIGHT(E68,3),1)</f>
-        <v>cam170amr</v>
+        <v>cam992amr</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -13085,7 +13097,7 @@
       </c>
       <c r="F69" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>cam878afa</v>
+        <v>cam435afa</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -13136,7 +13148,7 @@
       </c>
       <c r="F71" t="str">
         <f ca="1">LEFT(E71,1)&amp;RIGHT(LEFT(E71,2),1)&amp;RIGHT(LEFT(E71,3),1)&amp;RANDBETWEEN(111,999)&amp;RIGHT(E71,1)&amp;LEFT(RIGHT(E71,2),1)&amp;LEFT(RIGHT(E71,3),1)</f>
-        <v>gue579zul</v>
+        <v>gue744zul</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -13239,7 +13251,7 @@
       </c>
       <c r="F75" t="str">
         <f ca="1">LEFT(E75,1)&amp;RIGHT(LEFT(E75,2),1)&amp;RIGHT(LEFT(E75,3),1)&amp;RANDBETWEEN(111,999)&amp;RIGHT(E75,1)&amp;LEFT(RIGHT(E75,2),1)&amp;LEFT(RIGHT(E75,3),1)</f>
-        <v>mei252ata</v>
+        <v>mei165ata</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -15266,7 +15278,7 @@
       </c>
       <c r="F153" t="str">
         <f ca="1">LEFT(E153,1)&amp;RIGHT(LEFT(E153,2),1)&amp;RIGHT(LEFT(E153,3),1)&amp;RANDBETWEEN(111,999)&amp;RIGHT(E153,1)&amp;LEFT(RIGHT(E153,2),1)&amp;LEFT(RIGHT(E153,3),1)</f>
-        <v>mge574ocs</v>
+        <v>mge173ocs</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -15447,7 +15459,7 @@
       </c>
       <c r="F160" t="str">
         <f ca="1">LEFT(E160,1)&amp;RIGHT(LEFT(E160,2),1)&amp;RIGHT(LEFT(E160,3),1)&amp;RANDBETWEEN(111,999)&amp;RIGHT(E160,1)&amp;LEFT(RIGHT(E160,2),1)&amp;LEFT(RIGHT(E160,3),1)</f>
-        <v>mgp262zul</v>
+        <v>mgp158zul</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -15550,7 +15562,7 @@
       </c>
       <c r="F164" t="str">
         <f ca="1">LEFT(E164,1)&amp;RIGHT(LEFT(E164,2),1)&amp;RIGHT(LEFT(E164,3),1)&amp;RANDBETWEEN(111,999)&amp;RIGHT(E164,1)&amp;LEFT(RIGHT(E164,2),1)&amp;LEFT(RIGHT(E164,3),1)</f>
-        <v>nor705aea</v>
+        <v>nor856aea</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -15653,7 +15665,7 @@
       </c>
       <c r="F168" t="str">
         <f t="shared" ref="F168:F169" ca="1" si="4">LEFT(E168,1)&amp;RIGHT(LEFT(E168,2),1)&amp;RIGHT(LEFT(E168,3),1)&amp;RANDBETWEEN(111,999)&amp;RIGHT(E168,1)&amp;LEFT(RIGHT(E168,2),1)&amp;LEFT(RIGHT(E168,3),1)</f>
-        <v>nor226ohn</v>
+        <v>nor688ohn</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -15678,7 +15690,7 @@
       </c>
       <c r="F169" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>nor719eae</v>
+        <v>nor636eae</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -15781,7 +15793,7 @@
       </c>
       <c r="F173" t="str">
         <f ca="1">LEFT(E173,1)&amp;RIGHT(LEFT(E173,2),1)&amp;RIGHT(LEFT(E173,3),1)&amp;RANDBETWEEN(111,999)&amp;RIGHT(E173,1)&amp;LEFT(RIGHT(E173,2),1)&amp;LEFT(RIGHT(E173,3),1)</f>
-        <v>nor226dhe</v>
+        <v>nor962dhe</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -15832,7 +15844,7 @@
       </c>
       <c r="F175" t="str">
         <f t="shared" ref="F175:F176" ca="1" si="5">LEFT(E175,1)&amp;RIGHT(LEFT(E175,2),1)&amp;RIGHT(LEFT(E175,3),1)&amp;RANDBETWEEN(111,999)&amp;RIGHT(E175,1)&amp;LEFT(RIGHT(E175,2),1)&amp;LEFT(RIGHT(E175,3),1)</f>
-        <v>nor962bef</v>
+        <v>nor906bef</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -15857,7 +15869,7 @@
       </c>
       <c r="F176" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>nor440lue</v>
+        <v>nor941lue</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -16064,7 +16076,7 @@
       </c>
       <c r="F184" t="str">
         <f ca="1">LEFT(E184,1)&amp;RIGHT(LEFT(E184,2),1)&amp;RIGHT(LEFT(E184,3),1)&amp;RANDBETWEEN(111,999)&amp;RIGHT(E184,1)&amp;LEFT(RIGHT(E184,2),1)&amp;LEFT(RIGHT(E184,3),1)</f>
-        <v>nor495jde</v>
+        <v>nor687jde</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -16115,7 +16127,7 @@
       </c>
       <c r="F186" t="str">
         <f ca="1">LEFT(E186,1)&amp;RIGHT(LEFT(E186,2),1)&amp;RIGHT(LEFT(E186,3),1)&amp;RANDBETWEEN(111,999)&amp;RIGHT(E186,1)&amp;LEFT(RIGHT(E186,2),1)&amp;LEFT(RIGHT(E186,3),1)</f>
-        <v>nor806mej</v>
+        <v>nor184mej</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -16218,7 +16230,7 @@
       </c>
       <c r="F190" t="str">
         <f ca="1">LEFT(E190,1)&amp;RIGHT(LEFT(E190,2),1)&amp;RIGHT(LEFT(E190,3),1)&amp;RANDBETWEEN(111,999)&amp;RIGHT(E190,1)&amp;LEFT(RIGHT(E190,2),1)&amp;LEFT(RIGHT(E190,3),1)</f>
-        <v>nor603ani</v>
+        <v>nor135ani</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -16347,7 +16359,7 @@
       </c>
       <c r="F195" t="str">
         <f ca="1">LEFT(E195,1)&amp;RIGHT(LEFT(E195,2),1)&amp;RIGHT(LEFT(E195,3),1)&amp;RANDBETWEEN(111,999)&amp;RIGHT(E195,1)&amp;LEFT(RIGHT(E195,2),1)&amp;LEFT(RIGHT(E195,3),1)</f>
-        <v>nor759zul</v>
+        <v>nor219zul</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -17646,7 +17658,7 @@
       </c>
       <c r="F245" t="str">
         <f ca="1">LEFT(E245,1)&amp;RIGHT(LEFT(E245,2),1)&amp;RIGHT(LEFT(E245,3),1)&amp;RANDBETWEEN(111,999)&amp;RIGHT(E245,1)&amp;LEFT(RIGHT(E245,2),1)&amp;LEFT(RIGHT(E245,3),1)</f>
-        <v>spc578etn</v>
+        <v>spc654etn</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
@@ -17879,7 +17891,7 @@
       </c>
       <c r="F254" t="str">
         <f ca="1">LEFT(E254,1)&amp;RIGHT(LEFT(E254,2),1)&amp;RIGHT(LEFT(E254,3),1)&amp;RANDBETWEEN(111,999)&amp;RIGHT(E254,1)&amp;LEFT(RIGHT(E254,2),1)&amp;LEFT(RIGHT(E254,3),1)</f>
-        <v>les627leb</v>
+        <v>les889leb</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -20262,7 +20274,25 @@
         <v>27</v>
       </c>
     </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>26</v>
+      </c>
+      <c r="B347" t="s">
+        <v>26</v>
+      </c>
+      <c r="E347" t="s">
+        <v>28</v>
+      </c>
+      <c r="F347" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F348" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>